--- a/static/QQ看点.xlsx
+++ b/static/QQ看点.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
-  <si>
-    <t>序号</t>
-    <rPh sb="0" eb="1">
-      <t>xu'hao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="62">
   <si>
     <t>视频清晰度</t>
     <rPh sb="0" eb="1">
@@ -333,6 +326,37 @@
     <t>视频的简介（10-100字符）</t>
     <rPh sb="12" eb="13">
       <t>zi'fu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频ID</t>
+    <rPh sb="0" eb="1">
+      <t>shi'p</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>480P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他,其他,其他</t>
+    <rPh sb="0" eb="1">
+      <t>qi'ta</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>qi'ta</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>qi'ta</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范例</t>
+    <rPh sb="0" eb="1">
+      <t>fan'li</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -745,7 +769,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -758,28 +782,38 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="A2" s="1">
+        <v>111111</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1058,125 +1092,125 @@
   <sheetData>
     <row r="1" spans="1:4" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="C2" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="C5" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="3">
         <v>1486652423</v>
@@ -1184,156 +1218,156 @@
     </row>
     <row r="10" spans="1:4" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="C15" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="D20" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
